--- a/DataOrg/a4/Analysis Data.xlsx
+++ b/DataOrg/a4/Analysis Data.xlsx
@@ -14,7 +14,9 @@
   <sheets>
     <sheet name="Searches" sheetId="2" r:id="rId1"/>
     <sheet name="Build" sheetId="3" r:id="rId2"/>
-    <sheet name="Sheet1" sheetId="1" r:id="rId3"/>
+    <sheet name="Run2 Search" sheetId="4" r:id="rId3"/>
+    <sheet name="Run2 Build" sheetId="5" r:id="rId4"/>
+    <sheet name="Sheet1" sheetId="1" r:id="rId5"/>
   </sheets>
   <calcPr calcId="171027"/>
   <extLst>
@@ -26,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="10" uniqueCount="10">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="22" uniqueCount="12">
   <si>
     <t>Min BFS</t>
   </si>
@@ -56,6 +58,12 @@
   </si>
   <si>
     <t>Search Times (ms) by Number of Nodes</t>
+  </si>
+  <si>
+    <t>2017-11-10 RUN 1</t>
+  </si>
+  <si>
+    <t>2017-11-09 RUN 1</t>
   </si>
 </sst>
 </file>
@@ -217,7 +225,7 @@
           <c:order val="0"/>
           <c:tx>
             <c:strRef>
-              <c:f>Sheet1!$A$3</c:f>
+              <c:f>Sheet1!$A$4</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -335,7 +343,7 @@
           </c:trendline>
           <c:xVal>
             <c:numRef>
-              <c:f>Sheet1!$B$2:$J$2</c:f>
+              <c:f>Sheet1!$B$3:$J$3</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="9"/>
@@ -371,7 +379,7 @@
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>Sheet1!$B$3:$J$3</c:f>
+              <c:f>Sheet1!$B$4:$J$4</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="9"/>
@@ -417,7 +425,7 @@
           <c:order val="1"/>
           <c:tx>
             <c:strRef>
-              <c:f>Sheet1!$A$4</c:f>
+              <c:f>Sheet1!$A$5</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -535,7 +543,7 @@
           </c:trendline>
           <c:xVal>
             <c:numRef>
-              <c:f>Sheet1!$B$2:$J$2</c:f>
+              <c:f>Sheet1!$B$3:$J$3</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="9"/>
@@ -571,7 +579,7 @@
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>Sheet1!$B$4:$J$4</c:f>
+              <c:f>Sheet1!$B$5:$J$5</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="9"/>
@@ -617,7 +625,7 @@
           <c:order val="2"/>
           <c:tx>
             <c:strRef>
-              <c:f>Sheet1!$A$5</c:f>
+              <c:f>Sheet1!$A$6</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -726,7 +734,7 @@
           </c:trendline>
           <c:xVal>
             <c:numRef>
-              <c:f>Sheet1!$B$2:$J$2</c:f>
+              <c:f>Sheet1!$B$3:$J$3</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="9"/>
@@ -762,7 +770,7 @@
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>Sheet1!$B$5:$J$5</c:f>
+              <c:f>Sheet1!$B$6:$J$6</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="9"/>
@@ -808,7 +816,7 @@
           <c:order val="3"/>
           <c:tx>
             <c:strRef>
-              <c:f>Sheet1!$A$6</c:f>
+              <c:f>Sheet1!$A$7</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -917,7 +925,7 @@
           </c:trendline>
           <c:xVal>
             <c:numRef>
-              <c:f>Sheet1!$B$2:$J$2</c:f>
+              <c:f>Sheet1!$B$3:$J$3</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="9"/>
@@ -953,7 +961,7 @@
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>Sheet1!$B$6:$J$6</c:f>
+              <c:f>Sheet1!$B$7:$J$7</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="9"/>
@@ -999,7 +1007,7 @@
           <c:order val="4"/>
           <c:tx>
             <c:strRef>
-              <c:f>Sheet1!$A$7</c:f>
+              <c:f>Sheet1!$A$8</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -1108,7 +1116,7 @@
           </c:trendline>
           <c:xVal>
             <c:numRef>
-              <c:f>Sheet1!$B$2:$J$2</c:f>
+              <c:f>Sheet1!$B$3:$J$3</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="9"/>
@@ -1144,7 +1152,7 @@
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>Sheet1!$B$7:$J$7</c:f>
+              <c:f>Sheet1!$B$8:$J$8</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="9"/>
@@ -1624,7 +1632,7 @@
           <c:order val="0"/>
           <c:tx>
             <c:strRef>
-              <c:f>Sheet1!$A$10</c:f>
+              <c:f>Sheet1!$A$11</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -1733,7 +1741,7 @@
           </c:trendline>
           <c:xVal>
             <c:numRef>
-              <c:f>Sheet1!$B$9:$J$9</c:f>
+              <c:f>Sheet1!$B$10:$J$10</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="9"/>
@@ -1769,7 +1777,7 @@
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>Sheet1!$B$10:$J$10</c:f>
+              <c:f>Sheet1!$B$11:$J$11</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="9"/>
@@ -1815,7 +1823,7 @@
           <c:order val="1"/>
           <c:tx>
             <c:strRef>
-              <c:f>Sheet1!$A$11</c:f>
+              <c:f>Sheet1!$A$12</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -1924,7 +1932,7 @@
           </c:trendline>
           <c:xVal>
             <c:numRef>
-              <c:f>Sheet1!$B$9:$J$9</c:f>
+              <c:f>Sheet1!$B$10:$J$10</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="9"/>
@@ -1960,7 +1968,7 @@
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>Sheet1!$B$11:$J$11</c:f>
+              <c:f>Sheet1!$B$12:$J$12</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="9"/>
@@ -2006,7 +2014,7 @@
           <c:order val="2"/>
           <c:tx>
             <c:strRef>
-              <c:f>Sheet1!$A$12</c:f>
+              <c:f>Sheet1!$A$13</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -2124,7 +2132,7 @@
           </c:trendline>
           <c:xVal>
             <c:numRef>
-              <c:f>Sheet1!$B$9:$J$9</c:f>
+              <c:f>Sheet1!$B$10:$J$10</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="9"/>
@@ -2160,7 +2168,7 @@
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>Sheet1!$B$12:$J$12</c:f>
+              <c:f>Sheet1!$B$13:$J$13</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="9"/>
@@ -2546,6 +2554,2093 @@
 </c:chartSpace>
 </file>
 
+<file path=xl/charts/chart3.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-US"/>
+              <a:t>Search Times by Number of Nodes</a:t>
+            </a:r>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:scatterChart>
+        <c:scatterStyle val="lineMarker"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Sheet1!$A$18</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Min BFS</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="19050" cap="rnd">
+              <a:noFill/>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent1"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:trendline>
+            <c:spPr>
+              <a:ln w="19050" cap="rnd">
+                <a:solidFill>
+                  <a:schemeClr val="accent1"/>
+                </a:solidFill>
+                <a:prstDash val="sysDot"/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:trendlineType val="linear"/>
+            <c:dispRSqr val="0"/>
+            <c:dispEq val="1"/>
+            <c:trendlineLbl>
+              <c:numFmt formatCode="General" sourceLinked="0"/>
+              <c:spPr>
+                <a:noFill/>
+                <a:ln>
+                  <a:noFill/>
+                </a:ln>
+                <a:effectLst/>
+              </c:spPr>
+              <c:txPr>
+                <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+                <a:lstStyle/>
+                <a:p>
+                  <a:pPr>
+                    <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                      <a:solidFill>
+                        <a:schemeClr val="tx1">
+                          <a:lumMod val="65000"/>
+                          <a:lumOff val="35000"/>
+                        </a:schemeClr>
+                      </a:solidFill>
+                      <a:latin typeface="+mn-lt"/>
+                      <a:ea typeface="+mn-ea"/>
+                      <a:cs typeface="+mn-cs"/>
+                    </a:defRPr>
+                  </a:pPr>
+                  <a:endParaRPr lang="en-US"/>
+                </a:p>
+              </c:txPr>
+            </c:trendlineLbl>
+          </c:trendline>
+          <c:xVal>
+            <c:numRef>
+              <c:f>Sheet1!$B$17:$J$17</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="9"/>
+                <c:pt idx="0">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>10</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>100</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>1000</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>10000</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>100000</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>250000</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>500000</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>1000000</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>Sheet1!$B$18:$J$18</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="9"/>
+                <c:pt idx="0">
+                  <c:v>2.0000000000000001E-4</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>6.9999999999999999E-4</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>5.8999999999999999E-3</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>5.2200000000000003E-2</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>1.0229999999999999</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>24.407900000000001</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>67.859099999999998</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>123.3613</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>267.02769999999998</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000001-3F99-47A1-85FF-375EE73A2152}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Sheet1!$A$19</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Min DFS</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="19050" cap="rnd">
+              <a:noFill/>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent2"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent2"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:trendline>
+            <c:spPr>
+              <a:ln w="19050" cap="rnd">
+                <a:solidFill>
+                  <a:schemeClr val="accent2"/>
+                </a:solidFill>
+                <a:prstDash val="sysDot"/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:trendlineType val="linear"/>
+            <c:dispRSqr val="0"/>
+            <c:dispEq val="1"/>
+            <c:trendlineLbl>
+              <c:numFmt formatCode="General" sourceLinked="0"/>
+              <c:spPr>
+                <a:noFill/>
+                <a:ln>
+                  <a:noFill/>
+                </a:ln>
+                <a:effectLst/>
+              </c:spPr>
+              <c:txPr>
+                <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+                <a:lstStyle/>
+                <a:p>
+                  <a:pPr>
+                    <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                      <a:solidFill>
+                        <a:schemeClr val="tx1">
+                          <a:lumMod val="65000"/>
+                          <a:lumOff val="35000"/>
+                        </a:schemeClr>
+                      </a:solidFill>
+                      <a:latin typeface="+mn-lt"/>
+                      <a:ea typeface="+mn-ea"/>
+                      <a:cs typeface="+mn-cs"/>
+                    </a:defRPr>
+                  </a:pPr>
+                  <a:endParaRPr lang="en-US"/>
+                </a:p>
+              </c:txPr>
+            </c:trendlineLbl>
+          </c:trendline>
+          <c:xVal>
+            <c:numRef>
+              <c:f>Sheet1!$B$17:$J$17</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="9"/>
+                <c:pt idx="0">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>10</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>100</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>1000</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>10000</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>100000</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>250000</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>500000</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>1000000</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>Sheet1!$B$19:$J$19</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="9"/>
+                <c:pt idx="0">
+                  <c:v>2.0000000000000001E-4</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>5.9999999999999995E-4</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>5.7000000000000002E-3</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>6.3E-2</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.91469999999999996</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>19.1038</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>51.068800000000003</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>99.346900000000005</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>214.95349999999999</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000003-3F99-47A1-85FF-375EE73A2152}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="2"/>
+          <c:order val="2"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Sheet1!$A$20</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Max BFS</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="19050" cap="rnd">
+              <a:noFill/>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent3"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent3"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:trendline>
+            <c:spPr>
+              <a:ln w="19050" cap="rnd">
+                <a:solidFill>
+                  <a:schemeClr val="accent3"/>
+                </a:solidFill>
+                <a:prstDash val="sysDot"/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:trendlineType val="linear"/>
+            <c:dispRSqr val="0"/>
+            <c:dispEq val="1"/>
+            <c:trendlineLbl>
+              <c:numFmt formatCode="General" sourceLinked="0"/>
+              <c:spPr>
+                <a:noFill/>
+                <a:ln>
+                  <a:noFill/>
+                </a:ln>
+                <a:effectLst/>
+              </c:spPr>
+              <c:txPr>
+                <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+                <a:lstStyle/>
+                <a:p>
+                  <a:pPr>
+                    <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                      <a:solidFill>
+                        <a:schemeClr val="tx1">
+                          <a:lumMod val="65000"/>
+                          <a:lumOff val="35000"/>
+                        </a:schemeClr>
+                      </a:solidFill>
+                      <a:latin typeface="+mn-lt"/>
+                      <a:ea typeface="+mn-ea"/>
+                      <a:cs typeface="+mn-cs"/>
+                    </a:defRPr>
+                  </a:pPr>
+                  <a:endParaRPr lang="en-US"/>
+                </a:p>
+              </c:txPr>
+            </c:trendlineLbl>
+          </c:trendline>
+          <c:xVal>
+            <c:numRef>
+              <c:f>Sheet1!$B$17:$J$17</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="9"/>
+                <c:pt idx="0">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>10</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>100</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>1000</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>10000</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>100000</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>250000</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>500000</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>1000000</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>Sheet1!$B$20:$J$20</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="9"/>
+                <c:pt idx="0">
+                  <c:v>2.9999999999999997E-4</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>1.1000000000000001E-3</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>8.9999999999999993E-3</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>7.5999999999999998E-2</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>1.004</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>18.772200000000002</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>50.142600000000002</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>99.356099999999998</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>202.05529999999999</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000005-3F99-47A1-85FF-375EE73A2152}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="3"/>
+          <c:order val="3"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Sheet1!$A$21</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Max DFS</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="19050" cap="rnd">
+              <a:noFill/>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent4"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent4"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:trendline>
+            <c:spPr>
+              <a:ln w="19050" cap="rnd">
+                <a:solidFill>
+                  <a:schemeClr val="accent4"/>
+                </a:solidFill>
+                <a:prstDash val="sysDot"/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:trendlineType val="linear"/>
+            <c:dispRSqr val="0"/>
+            <c:dispEq val="1"/>
+            <c:trendlineLbl>
+              <c:numFmt formatCode="General" sourceLinked="0"/>
+              <c:spPr>
+                <a:noFill/>
+                <a:ln>
+                  <a:noFill/>
+                </a:ln>
+                <a:effectLst/>
+              </c:spPr>
+              <c:txPr>
+                <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+                <a:lstStyle/>
+                <a:p>
+                  <a:pPr>
+                    <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                      <a:solidFill>
+                        <a:schemeClr val="tx1">
+                          <a:lumMod val="65000"/>
+                          <a:lumOff val="35000"/>
+                        </a:schemeClr>
+                      </a:solidFill>
+                      <a:latin typeface="+mn-lt"/>
+                      <a:ea typeface="+mn-ea"/>
+                      <a:cs typeface="+mn-cs"/>
+                    </a:defRPr>
+                  </a:pPr>
+                  <a:endParaRPr lang="en-US"/>
+                </a:p>
+              </c:txPr>
+            </c:trendlineLbl>
+          </c:trendline>
+          <c:xVal>
+            <c:numRef>
+              <c:f>Sheet1!$B$17:$J$17</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="9"/>
+                <c:pt idx="0">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>10</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>100</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>1000</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>10000</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>100000</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>250000</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>500000</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>1000000</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>Sheet1!$B$21:$J$21</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="9"/>
+                <c:pt idx="0">
+                  <c:v>2.0000000000000001E-4</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>8.0000000000000004E-4</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>7.6E-3</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>7.6200000000000004E-2</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.94269999999999998</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>14.7027</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>38.391800000000003</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>70.605500000000006</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>143.13570000000001</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000007-3F99-47A1-85FF-375EE73A2152}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="4"/>
+          <c:order val="4"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Sheet1!$A$22</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>BST BTS</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="19050" cap="rnd">
+              <a:noFill/>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent5"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent5"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:trendline>
+            <c:spPr>
+              <a:ln w="19050" cap="rnd">
+                <a:solidFill>
+                  <a:schemeClr val="accent5"/>
+                </a:solidFill>
+                <a:prstDash val="sysDot"/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:trendlineType val="log"/>
+            <c:dispRSqr val="0"/>
+            <c:dispEq val="1"/>
+            <c:trendlineLbl>
+              <c:numFmt formatCode="General" sourceLinked="0"/>
+              <c:spPr>
+                <a:noFill/>
+                <a:ln>
+                  <a:noFill/>
+                </a:ln>
+                <a:effectLst/>
+              </c:spPr>
+              <c:txPr>
+                <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+                <a:lstStyle/>
+                <a:p>
+                  <a:pPr>
+                    <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                      <a:solidFill>
+                        <a:schemeClr val="tx1">
+                          <a:lumMod val="65000"/>
+                          <a:lumOff val="35000"/>
+                        </a:schemeClr>
+                      </a:solidFill>
+                      <a:latin typeface="+mn-lt"/>
+                      <a:ea typeface="+mn-ea"/>
+                      <a:cs typeface="+mn-cs"/>
+                    </a:defRPr>
+                  </a:pPr>
+                  <a:endParaRPr lang="en-US"/>
+                </a:p>
+              </c:txPr>
+            </c:trendlineLbl>
+          </c:trendline>
+          <c:xVal>
+            <c:numRef>
+              <c:f>Sheet1!$B$17:$J$17</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="9"/>
+                <c:pt idx="0">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>10</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>100</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>1000</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>10000</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>100000</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>250000</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>500000</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>1000000</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>Sheet1!$B$22:$J$22</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="9"/>
+                <c:pt idx="0">
+                  <c:v>4.0000000000000002E-4</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>5.0000000000000001E-4</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>1.9E-3</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>1.6000000000000001E-3</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>6.0000000000000001E-3</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>1.2800000000000001E-2</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>1.5100000000000001E-2</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>1.46E-2</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>1.4800000000000001E-2</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000009-3F99-47A1-85FF-375EE73A2152}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:axId val="446917400"/>
+        <c:axId val="446919368"/>
+      </c:scatterChart>
+      <c:valAx>
+        <c:axId val="446917400"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+          <c:max val="1000000"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-US"/>
+                  <a:t>Number</a:t>
+                </a:r>
+                <a:r>
+                  <a:rPr lang="en-US" baseline="0"/>
+                  <a:t> of Nodes</a:t>
+                </a:r>
+                <a:endParaRPr lang="en-US"/>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="en-US"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="in"/>
+        <c:minorTickMark val="in"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="446919368"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:valAx>
+        <c:axId val="446919368"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+          <c:max val="300"/>
+          <c:min val="0"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-US"/>
+                  <a:t>Time (ms)</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="en-US"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="in"/>
+        <c:minorTickMark val="in"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="446917400"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+        <c:majorUnit val="20"/>
+        <c:minorUnit val="10"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="b"/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:extLst>
+      <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
+        <c16r3:dataDisplayOptions16>
+          <c16r3:dispNaAsBlank val="1"/>
+        </c16r3:dataDisplayOptions16>
+      </c:ext>
+    </c:extLst>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="en-US"/>
+    </a:p>
+  </c:txPr>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart4.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-US" sz="1800" b="0" i="0" baseline="0">
+                <a:effectLst/>
+              </a:rPr>
+              <a:t>Build Times for Different Data Structures</a:t>
+            </a:r>
+            <a:endParaRPr lang="en-US">
+              <a:effectLst/>
+            </a:endParaRPr>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:scatterChart>
+        <c:scatterStyle val="lineMarker"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Sheet1!$A$26</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>MinHeap</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="19050" cap="rnd">
+              <a:noFill/>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent1"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:trendline>
+            <c:spPr>
+              <a:ln w="19050" cap="rnd">
+                <a:solidFill>
+                  <a:schemeClr val="accent1"/>
+                </a:solidFill>
+                <a:prstDash val="sysDot"/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:trendlineType val="linear"/>
+            <c:dispRSqr val="0"/>
+            <c:dispEq val="1"/>
+            <c:trendlineLbl>
+              <c:numFmt formatCode="General" sourceLinked="0"/>
+              <c:spPr>
+                <a:noFill/>
+                <a:ln>
+                  <a:noFill/>
+                </a:ln>
+                <a:effectLst/>
+              </c:spPr>
+              <c:txPr>
+                <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+                <a:lstStyle/>
+                <a:p>
+                  <a:pPr>
+                    <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                      <a:solidFill>
+                        <a:schemeClr val="tx1">
+                          <a:lumMod val="65000"/>
+                          <a:lumOff val="35000"/>
+                        </a:schemeClr>
+                      </a:solidFill>
+                      <a:latin typeface="+mn-lt"/>
+                      <a:ea typeface="+mn-ea"/>
+                      <a:cs typeface="+mn-cs"/>
+                    </a:defRPr>
+                  </a:pPr>
+                  <a:endParaRPr lang="en-US"/>
+                </a:p>
+              </c:txPr>
+            </c:trendlineLbl>
+          </c:trendline>
+          <c:xVal>
+            <c:numRef>
+              <c:f>Sheet1!$B$25:$J$25</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="9"/>
+                <c:pt idx="0">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>10</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>100</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>1000</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>10000</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>100000</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>250000</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>500000</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>1000000</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>Sheet1!$B$26:$J$26</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="9"/>
+                <c:pt idx="0">
+                  <c:v>5.3E-3</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>3.6600000000000001E-2</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.26900000000000002</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>2.2768000000000002</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>26.2456</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>457.21199999999999</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>1456.4328</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>2605.3069</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>5221.4551000000001</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-6B56-4400-9BE5-0C7A9ADE6FA5}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Sheet1!$A$27</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>MaxHeap</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="19050" cap="rnd">
+              <a:noFill/>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent2"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent2"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:trendline>
+            <c:spPr>
+              <a:ln w="19050" cap="rnd">
+                <a:solidFill>
+                  <a:schemeClr val="accent2"/>
+                </a:solidFill>
+                <a:prstDash val="sysDot"/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:trendlineType val="linear"/>
+            <c:dispRSqr val="0"/>
+            <c:dispEq val="1"/>
+            <c:trendlineLbl>
+              <c:numFmt formatCode="General" sourceLinked="0"/>
+              <c:spPr>
+                <a:noFill/>
+                <a:ln>
+                  <a:noFill/>
+                </a:ln>
+                <a:effectLst/>
+              </c:spPr>
+              <c:txPr>
+                <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+                <a:lstStyle/>
+                <a:p>
+                  <a:pPr>
+                    <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                      <a:solidFill>
+                        <a:schemeClr val="tx1">
+                          <a:lumMod val="65000"/>
+                          <a:lumOff val="35000"/>
+                        </a:schemeClr>
+                      </a:solidFill>
+                      <a:latin typeface="+mn-lt"/>
+                      <a:ea typeface="+mn-ea"/>
+                      <a:cs typeface="+mn-cs"/>
+                    </a:defRPr>
+                  </a:pPr>
+                  <a:endParaRPr lang="en-US"/>
+                </a:p>
+              </c:txPr>
+            </c:trendlineLbl>
+          </c:trendline>
+          <c:xVal>
+            <c:numRef>
+              <c:f>Sheet1!$B$25:$J$25</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="9"/>
+                <c:pt idx="0">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>10</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>100</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>1000</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>10000</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>100000</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>250000</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>500000</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>1000000</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>Sheet1!$B$27:$J$27</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="9"/>
+                <c:pt idx="0">
+                  <c:v>4.7999999999999996E-3</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>1.2500000000000001E-2</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.14249999999999999</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>1.0750999999999999</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>20.042400000000001</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>241.6456</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>571.67719999999997</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>1273.0286000000001</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>2628.2485999999999</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000001-6B56-4400-9BE5-0C7A9ADE6FA5}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="2"/>
+          <c:order val="2"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Sheet1!$A$28</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>BST</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="19050" cap="rnd">
+              <a:noFill/>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent3"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent3"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:trendline>
+            <c:spPr>
+              <a:ln w="19050" cap="rnd">
+                <a:solidFill>
+                  <a:schemeClr val="accent3"/>
+                </a:solidFill>
+                <a:prstDash val="sysDot"/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:trendlineType val="poly"/>
+            <c:order val="2"/>
+            <c:dispRSqr val="0"/>
+            <c:dispEq val="1"/>
+            <c:trendlineLbl>
+              <c:numFmt formatCode="General" sourceLinked="0"/>
+              <c:spPr>
+                <a:noFill/>
+                <a:ln>
+                  <a:noFill/>
+                </a:ln>
+                <a:effectLst/>
+              </c:spPr>
+              <c:txPr>
+                <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+                <a:lstStyle/>
+                <a:p>
+                  <a:pPr>
+                    <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                      <a:solidFill>
+                        <a:schemeClr val="tx1">
+                          <a:lumMod val="65000"/>
+                          <a:lumOff val="35000"/>
+                        </a:schemeClr>
+                      </a:solidFill>
+                      <a:latin typeface="+mn-lt"/>
+                      <a:ea typeface="+mn-ea"/>
+                      <a:cs typeface="+mn-cs"/>
+                    </a:defRPr>
+                  </a:pPr>
+                  <a:endParaRPr lang="en-US"/>
+                </a:p>
+              </c:txPr>
+            </c:trendlineLbl>
+          </c:trendline>
+          <c:xVal>
+            <c:numRef>
+              <c:f>Sheet1!$B$25:$J$25</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="9"/>
+                <c:pt idx="0">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>10</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>100</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>1000</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>10000</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>100000</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>250000</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>500000</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>1000000</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>Sheet1!$B$28:$J$28</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="9"/>
+                <c:pt idx="0">
+                  <c:v>5.1000000000000004E-3</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>1.4E-2</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.1784</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>1.8383</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>27.820699999999999</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>662.44119999999998</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>2098.8517000000002</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>4315.2759999999998</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>9357.2289999999994</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000002-6B56-4400-9BE5-0C7A9ADE6FA5}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:axId val="544394880"/>
+        <c:axId val="544398488"/>
+      </c:scatterChart>
+      <c:valAx>
+        <c:axId val="544394880"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+          <c:max val="1000000"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-US"/>
+                  <a:t>Number of Nodes</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="en-US"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="in"/>
+        <c:minorTickMark val="in"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="544398488"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:valAx>
+        <c:axId val="544398488"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+          <c:min val="0"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-US"/>
+                  <a:t>Time (ms)</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="en-US"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="in"/>
+        <c:minorTickMark val="in"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="544394880"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+        <c:majorUnit val="500"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="b"/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:extLst>
+      <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
+        <c16r3:dataDisplayOptions16>
+          <c16r3:dispNaAsBlank val="1"/>
+        </c16r3:dataDisplayOptions16>
+      </c:ext>
+    </c:extLst>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="en-US"/>
+    </a:p>
+  </c:txPr>
+</c:chartSpace>
+</file>
+
 <file path=xl/charts/colors1.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
   <a:schemeClr val="accent1"/>
@@ -2626,6 +4721,86 @@
 </cs:colorStyle>
 </file>
 
+<file path=xl/charts/colors3.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/colors4.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
 <file path=xl/charts/style1.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="240">
   <cs:axisTitle>
@@ -3143,6 +5318,1038 @@
 </file>
 
 <file path=xl/charts/style2.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="240">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="75000"/>
+          <a:lumOff val="25000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="50000"/>
+            <a:lumOff val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style3.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="240">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="75000"/>
+          <a:lumOff val="25000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="50000"/>
+            <a:lumOff val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style4.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="240">
   <cs:axisTitle>
     <cs:lnRef idx="0"/>
@@ -3671,6 +6878,28 @@
 
 <file path=xl/chartsheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <chartsheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" xr:uid="{E2CD6317-7990-4272-9CA9-86B96FD9AAD2}">
+  <sheetPr/>
+  <sheetViews>
+    <sheetView zoomScale="117" workbookViewId="0" zoomToFit="1"/>
+  </sheetViews>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
+</chartsheet>
+</file>
+
+<file path=xl/chartsheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<chartsheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" xr:uid="{7D69CCF0-663C-4D3E-A0BF-7AE5F4EFAE7D}">
+  <sheetPr/>
+  <sheetViews>
+    <sheetView tabSelected="1" zoomScale="117" workbookViewId="0" zoomToFit="1"/>
+  </sheetViews>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
+</chartsheet>
+</file>
+
+<file path=xl/chartsheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<chartsheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" xr:uid="{1824AD6F-7A1F-4F5D-A178-D45A1909BC39}">
   <sheetPr/>
   <sheetViews>
     <sheetView zoomScale="117" workbookViewId="0" zoomToFit="1"/>
@@ -3717,13 +6946,79 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:absoluteAnchor>
     <xdr:pos x="0" y="0"/>
+    <xdr:ext cx="8662051" cy="6293013"/>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="2" name="Chart 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{DE79359C-2A7B-4FC3-BAFA-7C940ACF9208}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr>
+          <a:graphicFrameLocks noGrp="1"/>
+        </xdr:cNvGraphicFramePr>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:absoluteAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing3.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:absoluteAnchor>
+    <xdr:pos x="0" y="0"/>
     <xdr:ext cx="8670192" cy="6293013"/>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
         <xdr:cNvPr id="2" name="Chart 1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{DE79359C-2A7B-4FC3-BAFA-7C940ACF9208}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{1693BC9B-8F26-4324-9EEA-F4E081A7159C}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr>
+          <a:graphicFrameLocks noGrp="1"/>
+        </xdr:cNvGraphicFramePr>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:absoluteAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing4.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:absoluteAnchor>
+    <xdr:pos x="0" y="0"/>
+    <xdr:ext cx="8670192" cy="6293013"/>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="2" name="Chart 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{C388D68E-913A-4279-B493-DD68A648A67E}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -4043,18 +7338,19 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4B437974-E81B-4F0B-9690-12507ADE8041}">
-  <dimension ref="A1:J12"/>
+  <dimension ref="A1:J28"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G17" sqref="G17"/>
+    <sheetView topLeftCell="A7" workbookViewId="0">
+      <selection activeCell="A25" sqref="A25:J28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
     <row r="1" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="B1" s="1" t="s">
-        <v>9</v>
-      </c>
+      <c r="A1" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="B1" s="1"/>
       <c r="C1" s="1"/>
       <c r="D1" s="1"/>
       <c r="E1" s="1"/>
@@ -4065,336 +7361,707 @@
       <c r="J1" s="1"/>
     </row>
     <row r="2" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="B2">
-        <v>1</v>
-      </c>
-      <c r="C2">
-        <v>10</v>
-      </c>
-      <c r="D2">
-        <v>100</v>
-      </c>
-      <c r="E2">
-        <v>1000</v>
-      </c>
-      <c r="F2">
-        <v>10000</v>
-      </c>
-      <c r="G2">
-        <v>100000</v>
-      </c>
-      <c r="H2">
-        <v>250000</v>
-      </c>
-      <c r="I2">
-        <v>500000</v>
-      </c>
-      <c r="J2">
-        <v>1000000</v>
-      </c>
+      <c r="B2" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="C2" s="1"/>
+      <c r="D2" s="1"/>
+      <c r="E2" s="1"/>
+      <c r="F2" s="1"/>
+      <c r="G2" s="1"/>
+      <c r="H2" s="1"/>
+      <c r="I2" s="1"/>
+      <c r="J2" s="1"/>
     </row>
     <row r="3" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A3" t="s">
-        <v>0</v>
-      </c>
       <c r="B3">
-        <v>3.3E-3</v>
+        <v>1</v>
       </c>
       <c r="C3">
-        <v>6.9999999999999999E-4</v>
+        <v>10</v>
       </c>
       <c r="D3">
-        <v>5.7000000000000002E-3</v>
+        <v>100</v>
       </c>
       <c r="E3">
-        <v>5.4699999999999999E-2</v>
+        <v>1000</v>
       </c>
       <c r="F3">
-        <v>0.93640000000000001</v>
+        <v>10000</v>
       </c>
       <c r="G3">
-        <v>23.9693</v>
+        <v>100000</v>
       </c>
       <c r="H3">
-        <v>62.54</v>
+        <v>250000</v>
       </c>
       <c r="I3">
-        <v>129.87</v>
+        <v>500000</v>
       </c>
       <c r="J3">
-        <v>298.5</v>
+        <v>1000000</v>
       </c>
     </row>
     <row r="4" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="B4">
-        <v>4.0000000000000002E-4</v>
+        <v>3.3E-3</v>
       </c>
       <c r="C4">
-        <v>5.9999999999999995E-4</v>
+        <v>6.9999999999999999E-4</v>
       </c>
       <c r="D4">
-        <v>5.1999999999999998E-3</v>
+        <v>5.7000000000000002E-3</v>
       </c>
       <c r="E4">
-        <v>6.3600000000000004E-2</v>
+        <v>5.4699999999999999E-2</v>
       </c>
       <c r="F4">
-        <v>1.1749000000000001</v>
+        <v>0.93640000000000001</v>
       </c>
       <c r="G4">
-        <v>19.132000000000001</v>
+        <v>23.9693</v>
       </c>
       <c r="H4">
-        <v>48.87</v>
+        <v>62.54</v>
       </c>
       <c r="I4">
-        <v>102.1</v>
+        <v>129.87</v>
       </c>
       <c r="J4">
-        <v>221.8</v>
+        <v>298.5</v>
       </c>
     </row>
     <row r="5" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B5">
-        <v>8.9999999999999998E-4</v>
+        <v>4.0000000000000002E-4</v>
       </c>
       <c r="C5">
-        <v>1E-3</v>
+        <v>5.9999999999999995E-4</v>
       </c>
       <c r="D5">
-        <v>8.0000000000000002E-3</v>
+        <v>5.1999999999999998E-3</v>
       </c>
       <c r="E5">
-        <v>7.3800000000000004E-2</v>
+        <v>6.3600000000000004E-2</v>
       </c>
       <c r="F5">
-        <v>0.75019999999999998</v>
+        <v>1.1749000000000001</v>
       </c>
       <c r="G5">
-        <v>8.5417000000000005</v>
+        <v>19.132000000000001</v>
       </c>
       <c r="H5">
-        <v>21.449400000000001</v>
+        <v>48.87</v>
       </c>
       <c r="I5">
-        <v>41.7</v>
+        <v>102.1</v>
       </c>
       <c r="J5">
-        <v>85.18</v>
+        <v>221.8</v>
       </c>
     </row>
     <row r="6" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="B6">
-        <v>4.0000000000000002E-4</v>
+        <v>8.9999999999999998E-4</v>
       </c>
       <c r="C6">
-        <v>8.0000000000000004E-4</v>
+        <v>1E-3</v>
       </c>
       <c r="D6">
-        <v>7.1000000000000004E-3</v>
+        <v>8.0000000000000002E-3</v>
       </c>
       <c r="E6">
-        <v>7.6899999999999996E-2</v>
+        <v>7.3800000000000004E-2</v>
       </c>
       <c r="F6">
-        <v>1.0376000000000001</v>
+        <v>0.75019999999999998</v>
       </c>
       <c r="G6">
-        <v>13.854200000000001</v>
+        <v>8.5417000000000005</v>
       </c>
       <c r="H6">
-        <v>34.434699999999999</v>
+        <v>21.449400000000001</v>
       </c>
       <c r="I6">
-        <v>68.16</v>
+        <v>41.7</v>
       </c>
       <c r="J6">
-        <v>138.66999999999999</v>
+        <v>85.18</v>
       </c>
     </row>
     <row r="7" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="B7">
-        <v>5.0000000000000001E-4</v>
+        <v>4.0000000000000002E-4</v>
       </c>
       <c r="C7">
-        <v>6.9999999999999999E-4</v>
+        <v>8.0000000000000004E-4</v>
       </c>
       <c r="D7">
-        <v>6.9999999999999999E-4</v>
+        <v>7.1000000000000004E-3</v>
       </c>
       <c r="E7">
-        <v>2.0999999999999999E-3</v>
+        <v>7.6899999999999996E-2</v>
       </c>
       <c r="F7">
-        <v>7.9000000000000008E-3</v>
+        <v>1.0376000000000001</v>
       </c>
       <c r="G7">
-        <v>1.34E-2</v>
+        <v>13.854200000000001</v>
       </c>
       <c r="H7">
-        <v>1.5299999999999999E-2</v>
+        <v>34.434699999999999</v>
       </c>
       <c r="I7">
-        <v>1.1599999999999999E-2</v>
+        <v>68.16</v>
       </c>
       <c r="J7">
-        <v>1.52E-2</v>
+        <v>138.66999999999999</v>
       </c>
     </row>
     <row r="8" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="B8" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="C8" s="1"/>
-      <c r="D8" s="1"/>
-      <c r="E8" s="1"/>
-      <c r="F8" s="1"/>
-      <c r="G8" s="1"/>
-      <c r="H8" s="1"/>
-      <c r="I8" s="1"/>
-      <c r="J8" s="1"/>
+      <c r="A8" t="s">
+        <v>4</v>
+      </c>
+      <c r="B8">
+        <v>5.0000000000000001E-4</v>
+      </c>
+      <c r="C8">
+        <v>6.9999999999999999E-4</v>
+      </c>
+      <c r="D8">
+        <v>6.9999999999999999E-4</v>
+      </c>
+      <c r="E8">
+        <v>2.0999999999999999E-3</v>
+      </c>
+      <c r="F8">
+        <v>7.9000000000000008E-3</v>
+      </c>
+      <c r="G8">
+        <v>1.34E-2</v>
+      </c>
+      <c r="H8">
+        <v>1.5299999999999999E-2</v>
+      </c>
+      <c r="I8">
+        <v>1.1599999999999999E-2</v>
+      </c>
+      <c r="J8">
+        <v>1.52E-2</v>
+      </c>
     </row>
     <row r="9" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="B9">
-        <v>1</v>
-      </c>
-      <c r="C9">
-        <v>10</v>
-      </c>
-      <c r="D9">
-        <v>100</v>
-      </c>
-      <c r="E9">
-        <v>1000</v>
-      </c>
-      <c r="F9">
-        <v>10000</v>
-      </c>
-      <c r="G9">
-        <v>100000</v>
-      </c>
-      <c r="H9">
-        <v>250000</v>
-      </c>
-      <c r="I9">
-        <v>500000</v>
-      </c>
-      <c r="J9">
-        <v>1000000</v>
-      </c>
+      <c r="B9" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="C9" s="1"/>
+      <c r="D9" s="1"/>
+      <c r="E9" s="1"/>
+      <c r="F9" s="1"/>
+      <c r="G9" s="1"/>
+      <c r="H9" s="1"/>
+      <c r="I9" s="1"/>
+      <c r="J9" s="1"/>
     </row>
     <row r="10" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A10" t="s">
-        <v>5</v>
-      </c>
       <c r="B10">
-        <v>1.0730999999999999</v>
+        <v>1</v>
       </c>
       <c r="C10">
-        <v>0.377</v>
+        <v>10</v>
       </c>
       <c r="D10">
-        <v>0.1804</v>
+        <v>100</v>
       </c>
       <c r="E10">
-        <v>1.7867999999999999</v>
+        <v>1000</v>
       </c>
       <c r="F10">
-        <v>24.334499999999998</v>
+        <v>10000</v>
       </c>
       <c r="G10">
-        <v>451.40010000000001</v>
+        <v>100000</v>
       </c>
       <c r="H10">
-        <v>1190.1199999999999</v>
+        <v>250000</v>
       </c>
       <c r="I10">
-        <v>2400.9</v>
+        <v>500000</v>
       </c>
       <c r="J10">
-        <v>4822</v>
+        <v>1000000</v>
       </c>
     </row>
     <row r="11" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="B11">
-        <v>0.69089999999999996</v>
+        <v>1.0730999999999999</v>
       </c>
       <c r="C11">
-        <v>7.9000000000000008E-3</v>
+        <v>0.377</v>
       </c>
       <c r="D11">
-        <v>7.9299999999999995E-2</v>
+        <v>0.1804</v>
       </c>
       <c r="E11">
-        <v>0.69989999999999997</v>
+        <v>1.7867999999999999</v>
       </c>
       <c r="F11">
-        <v>12.084899999999999</v>
+        <v>24.334499999999998</v>
       </c>
       <c r="G11">
-        <v>146.00239999999999</v>
+        <v>451.40010000000001</v>
       </c>
       <c r="H11">
-        <v>429.36</v>
+        <v>1190.1199999999999</v>
       </c>
       <c r="I11">
-        <v>1235.6600000000001</v>
+        <v>2400.9</v>
       </c>
       <c r="J11">
-        <v>1938.7</v>
+        <v>4822</v>
       </c>
     </row>
     <row r="12" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
+        <v>6</v>
+      </c>
+      <c r="B12">
+        <v>0.69089999999999996</v>
+      </c>
+      <c r="C12">
+        <v>7.9000000000000008E-3</v>
+      </c>
+      <c r="D12">
+        <v>7.9299999999999995E-2</v>
+      </c>
+      <c r="E12">
+        <v>0.69989999999999997</v>
+      </c>
+      <c r="F12">
+        <v>12.084899999999999</v>
+      </c>
+      <c r="G12">
+        <v>146.00239999999999</v>
+      </c>
+      <c r="H12">
+        <v>429.36</v>
+      </c>
+      <c r="I12">
+        <v>1235.6600000000001</v>
+      </c>
+      <c r="J12">
+        <v>1938.7</v>
+      </c>
+    </row>
+    <row r="13" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A13" t="s">
         <v>7</v>
       </c>
-      <c r="B12">
+      <c r="B13">
         <v>0.51070000000000004</v>
       </c>
-      <c r="C12">
+      <c r="C13">
         <v>1.2500000000000001E-2</v>
       </c>
-      <c r="D12">
+      <c r="D13">
         <v>0.18729999999999999</v>
       </c>
-      <c r="E12">
+      <c r="E13">
         <v>1.9071</v>
       </c>
-      <c r="F12">
+      <c r="F13">
         <v>42.375300000000003</v>
       </c>
-      <c r="G12">
+      <c r="G13">
         <v>594.13990000000001</v>
       </c>
-      <c r="H12">
+      <c r="H13">
         <v>1750.58</v>
       </c>
-      <c r="I12">
+      <c r="I13">
         <v>4011.1</v>
       </c>
-      <c r="J12">
+      <c r="J13">
         <v>9103</v>
+      </c>
+    </row>
+    <row r="15" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A15" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="B15" s="1"/>
+      <c r="C15" s="1"/>
+      <c r="D15" s="1"/>
+      <c r="E15" s="1"/>
+      <c r="F15" s="1"/>
+      <c r="G15" s="1"/>
+      <c r="H15" s="1"/>
+      <c r="I15" s="1"/>
+      <c r="J15" s="1"/>
+    </row>
+    <row r="16" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="B16" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="C16" s="1"/>
+      <c r="D16" s="1"/>
+      <c r="E16" s="1"/>
+      <c r="F16" s="1"/>
+      <c r="G16" s="1"/>
+      <c r="H16" s="1"/>
+      <c r="I16" s="1"/>
+      <c r="J16" s="1"/>
+    </row>
+    <row r="17" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="B17">
+        <v>1</v>
+      </c>
+      <c r="C17">
+        <v>10</v>
+      </c>
+      <c r="D17">
+        <v>100</v>
+      </c>
+      <c r="E17">
+        <v>1000</v>
+      </c>
+      <c r="F17">
+        <v>10000</v>
+      </c>
+      <c r="G17">
+        <v>100000</v>
+      </c>
+      <c r="H17">
+        <v>250000</v>
+      </c>
+      <c r="I17">
+        <v>500000</v>
+      </c>
+      <c r="J17">
+        <v>1000000</v>
+      </c>
+    </row>
+    <row r="18" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A18" t="s">
+        <v>0</v>
+      </c>
+      <c r="B18">
+        <v>2.0000000000000001E-4</v>
+      </c>
+      <c r="C18">
+        <v>6.9999999999999999E-4</v>
+      </c>
+      <c r="D18">
+        <v>5.8999999999999999E-3</v>
+      </c>
+      <c r="E18">
+        <v>5.2200000000000003E-2</v>
+      </c>
+      <c r="F18">
+        <v>1.0229999999999999</v>
+      </c>
+      <c r="G18">
+        <v>24.407900000000001</v>
+      </c>
+      <c r="H18">
+        <v>67.859099999999998</v>
+      </c>
+      <c r="I18">
+        <v>123.3613</v>
+      </c>
+      <c r="J18">
+        <v>267.02769999999998</v>
+      </c>
+    </row>
+    <row r="19" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A19" t="s">
+        <v>1</v>
+      </c>
+      <c r="B19">
+        <v>2.0000000000000001E-4</v>
+      </c>
+      <c r="C19">
+        <v>5.9999999999999995E-4</v>
+      </c>
+      <c r="D19">
+        <v>5.7000000000000002E-3</v>
+      </c>
+      <c r="E19">
+        <v>6.3E-2</v>
+      </c>
+      <c r="F19">
+        <v>0.91469999999999996</v>
+      </c>
+      <c r="G19">
+        <v>19.1038</v>
+      </c>
+      <c r="H19">
+        <v>51.068800000000003</v>
+      </c>
+      <c r="I19">
+        <v>99.346900000000005</v>
+      </c>
+      <c r="J19">
+        <v>214.95349999999999</v>
+      </c>
+    </row>
+    <row r="20" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A20" t="s">
+        <v>2</v>
+      </c>
+      <c r="B20">
+        <v>2.9999999999999997E-4</v>
+      </c>
+      <c r="C20">
+        <v>1.1000000000000001E-3</v>
+      </c>
+      <c r="D20">
+        <v>8.9999999999999993E-3</v>
+      </c>
+      <c r="E20">
+        <v>7.5999999999999998E-2</v>
+      </c>
+      <c r="F20">
+        <v>1.004</v>
+      </c>
+      <c r="G20">
+        <v>18.772200000000002</v>
+      </c>
+      <c r="H20">
+        <v>50.142600000000002</v>
+      </c>
+      <c r="I20">
+        <v>99.356099999999998</v>
+      </c>
+      <c r="J20">
+        <v>202.05529999999999</v>
+      </c>
+    </row>
+    <row r="21" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A21" t="s">
+        <v>3</v>
+      </c>
+      <c r="B21">
+        <v>2.0000000000000001E-4</v>
+      </c>
+      <c r="C21">
+        <v>8.0000000000000004E-4</v>
+      </c>
+      <c r="D21">
+        <v>7.6E-3</v>
+      </c>
+      <c r="E21">
+        <v>7.6200000000000004E-2</v>
+      </c>
+      <c r="F21">
+        <v>0.94269999999999998</v>
+      </c>
+      <c r="G21">
+        <v>14.7027</v>
+      </c>
+      <c r="H21">
+        <v>38.391800000000003</v>
+      </c>
+      <c r="I21">
+        <v>70.605500000000006</v>
+      </c>
+      <c r="J21">
+        <v>143.13570000000001</v>
+      </c>
+    </row>
+    <row r="22" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A22" t="s">
+        <v>4</v>
+      </c>
+      <c r="B22">
+        <v>4.0000000000000002E-4</v>
+      </c>
+      <c r="C22">
+        <v>5.0000000000000001E-4</v>
+      </c>
+      <c r="D22">
+        <v>1.9E-3</v>
+      </c>
+      <c r="E22">
+        <v>1.6000000000000001E-3</v>
+      </c>
+      <c r="F22">
+        <v>6.0000000000000001E-3</v>
+      </c>
+      <c r="G22">
+        <v>1.2800000000000001E-2</v>
+      </c>
+      <c r="H22">
+        <v>1.5100000000000001E-2</v>
+      </c>
+      <c r="I22">
+        <v>1.46E-2</v>
+      </c>
+      <c r="J22">
+        <v>1.4800000000000001E-2</v>
+      </c>
+    </row>
+    <row r="24" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="B24" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="C24" s="1"/>
+      <c r="D24" s="1"/>
+      <c r="E24" s="1"/>
+      <c r="F24" s="1"/>
+      <c r="G24" s="1"/>
+      <c r="H24" s="1"/>
+      <c r="I24" s="1"/>
+      <c r="J24" s="1"/>
+    </row>
+    <row r="25" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="B25">
+        <v>1</v>
+      </c>
+      <c r="C25">
+        <v>10</v>
+      </c>
+      <c r="D25">
+        <v>100</v>
+      </c>
+      <c r="E25">
+        <v>1000</v>
+      </c>
+      <c r="F25">
+        <v>10000</v>
+      </c>
+      <c r="G25">
+        <v>100000</v>
+      </c>
+      <c r="H25">
+        <v>250000</v>
+      </c>
+      <c r="I25">
+        <v>500000</v>
+      </c>
+      <c r="J25">
+        <v>1000000</v>
+      </c>
+    </row>
+    <row r="26" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A26" t="s">
+        <v>5</v>
+      </c>
+      <c r="B26">
+        <v>5.3E-3</v>
+      </c>
+      <c r="C26">
+        <v>3.6600000000000001E-2</v>
+      </c>
+      <c r="D26">
+        <v>0.26900000000000002</v>
+      </c>
+      <c r="E26">
+        <v>2.2768000000000002</v>
+      </c>
+      <c r="F26">
+        <v>26.2456</v>
+      </c>
+      <c r="G26">
+        <v>457.21199999999999</v>
+      </c>
+      <c r="H26">
+        <v>1456.4328</v>
+      </c>
+      <c r="I26">
+        <v>2605.3069</v>
+      </c>
+      <c r="J26">
+        <v>5221.4551000000001</v>
+      </c>
+    </row>
+    <row r="27" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A27" t="s">
+        <v>6</v>
+      </c>
+      <c r="B27">
+        <v>4.7999999999999996E-3</v>
+      </c>
+      <c r="C27">
+        <v>1.2500000000000001E-2</v>
+      </c>
+      <c r="D27">
+        <v>0.14249999999999999</v>
+      </c>
+      <c r="E27">
+        <v>1.0750999999999999</v>
+      </c>
+      <c r="F27">
+        <v>20.042400000000001</v>
+      </c>
+      <c r="G27">
+        <v>241.6456</v>
+      </c>
+      <c r="H27">
+        <v>571.67719999999997</v>
+      </c>
+      <c r="I27">
+        <v>1273.0286000000001</v>
+      </c>
+      <c r="J27">
+        <v>2628.2485999999999</v>
+      </c>
+    </row>
+    <row r="28" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A28" t="s">
+        <v>7</v>
+      </c>
+      <c r="B28">
+        <v>5.1000000000000004E-3</v>
+      </c>
+      <c r="C28">
+        <v>1.4E-2</v>
+      </c>
+      <c r="D28">
+        <v>0.1784</v>
+      </c>
+      <c r="E28">
+        <v>1.8383</v>
+      </c>
+      <c r="F28">
+        <v>27.820699999999999</v>
+      </c>
+      <c r="G28">
+        <v>662.44119999999998</v>
+      </c>
+      <c r="H28">
+        <v>2098.8517000000002</v>
+      </c>
+      <c r="I28">
+        <v>4315.2759999999998</v>
+      </c>
+      <c r="J28">
+        <v>9357.2289999999994</v>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="2">
-    <mergeCell ref="B1:J1"/>
-    <mergeCell ref="B8:J8"/>
+  <mergeCells count="6">
+    <mergeCell ref="A1:J1"/>
+    <mergeCell ref="B2:J2"/>
+    <mergeCell ref="B9:J9"/>
+    <mergeCell ref="B16:J16"/>
+    <mergeCell ref="B24:J24"/>
+    <mergeCell ref="A15:J15"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
